--- a/biology/Zoologie/Isognathus/Isognathus.xlsx
+++ b/biology/Zoologie/Isognathus/Isognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isognathus est un genre d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est néotropical. La plupart des espèces sont connues en Amérique du Sud, mais quelques-unes se retrouvent également au Mexique et aux Caraïbes. Isognathus rimosa peut se rencontrer en Amérique du Nord.
 </t>
@@ -542,14 +556,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Isognathus a été décrit par les entomologistes autrichiens Cajetan Freiherr von Felder et Rudolf Felder, en 1865[1].
-L'espèce type pour le genre est Isognathus scyron (Cramer, [1780])
-Synonymie
-Tatoglossum Butler, 1876[2].
-Liste des espèces
-Isognathus allamandae Clark, 1920
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Isognathus a été décrit par les entomologistes autrichiens Cajetan Freiherr von Felder et Rudolf Felder, en 1865.
+L'espèce type pour le genre est Isognathus scyron (Cramer, )</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isognathus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isognathus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tatoglossum Butler, 1876.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Isognathus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isognathus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isognathus allamandae Clark, 1920
 Isognathus australis Clark, 1917
 Isognathus caricae (Linnaeus, 1758)
 Isognathus excelsior (Boisduval, 1875)
